--- a/output/clean_data/stocks_removed.xlsx
+++ b/output/clean_data/stocks_removed.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="60">
   <si>
     <t>Area</t>
   </si>
@@ -37,6 +37,27 @@
     <t>Reason Removed</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
     <t>Deep Sea</t>
   </si>
   <si>
@@ -163,25 +184,7 @@
     <t>UNK</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
     <t>51fromAbwoTuna</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>77</t>
   </si>
   <si>
     <t>Duplicate</t>
@@ -578,463 +581,463 @@
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2">
-        <v>21</v>
+      <c r="A2" t="s">
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3">
-        <v>27</v>
+      <c r="A3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4">
-        <v>27</v>
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5">
-        <v>41</v>
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6">
-        <v>47</v>
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7">
-        <v>47</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8">
-        <v>51</v>
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D8">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>51</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10">
-        <v>61</v>
+      <c r="A10" t="s">
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11">
-        <v>77</v>
+      <c r="A11" t="s">
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F16" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
